--- a/data-raw/NutrientData/nutrientDetails/comp_recalc_ctemf_fruits_Other_FCT.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_recalc_ctemf_fruits_Other_FCT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -529,10 +529,10 @@
     <t>Composite</t>
   </si>
   <si>
-    <t>vit_d_μg</t>
-  </si>
-  <si>
     <t>pcn_fdsupply_avg</t>
+  </si>
+  <si>
+    <t>vit_d_µg</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1762,7 @@
         <v>107</v>
       </c>
       <c r="AA1" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3999,8 +3999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4110,7 +4110,7 @@
         <v>138</v>
       </c>
       <c r="AH1" s="51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI1" s="51" t="s">
         <v>139</v>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="AG1" s="52" t="str">
         <f>FCT!AH1</f>
-        <v>vit_d_μg</v>
+        <v>vit_d_µg</v>
       </c>
       <c r="AH1" s="52" t="str">
         <f>FCT!AI1</f>
